--- a/DATA_goal/Junction_Flooding_110.xlsx
+++ b/DATA_goal/Junction_Flooding_110.xlsx
@@ -444,36 +444,36 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>41542.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.83</v>
+        <v>2.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.68</v>
+        <v>2.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.47</v>
+        <v>0.55</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>131.09</v>
+        <v>13.11</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>25.1</v>
+        <v>2.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>15.87</v>
+        <v>1.59</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>23.07</v>
+        <v>2.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41542.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.05</v>
+        <v>2.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.11</v>
+        <v>4.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>36.91</v>
+        <v>3.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.35</v>
+        <v>6.13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.71</v>
+        <v>2.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.46</v>
+        <v>2.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>245.62</v>
+        <v>24.56</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>46.43</v>
+        <v>4.64</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>30.86</v>
+        <v>3.09</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>56.03</v>
+        <v>5.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>0</v>
@@ -920,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>0</v>
@@ -967,103 +967,103 @@
         <v>41542.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.99</v>
+        <v>1.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.53</v>
+        <v>3.45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.36</v>
+        <v>1.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.6</v>
+        <v>14.66</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.74</v>
+        <v>2.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.8</v>
+        <v>3.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.3</v>
+        <v>0.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41542.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.35</v>
+        <v>0.33</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
         <v>3.31</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="4" t="n">
+      <c r="U6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>33.11</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.15</v>
-      </c>
       <c r="AB6" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41542.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="P7" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
         <v>8.210000000000001</v>
       </c>
-      <c r="Q7" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>82.13</v>
-      </c>
       <c r="U7" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41542.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>34.94</v>
+        <v>3.49</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>29.13</v>
+        <v>2.91</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>46.01</v>
+        <v>4.6</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.42</v>
+        <v>1.94</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>183.96</v>
+        <v>18.4</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>34.92</v>
+        <v>3.49</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>23.49</v>
+        <v>2.35</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>41.63</v>
+        <v>4.16</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.45</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41542.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>35.57</v>
+        <v>3.56</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>29.61</v>
+        <v>2.96</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>49.83</v>
+        <v>4.98</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.76</v>
+        <v>1.98</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>187.38</v>
+        <v>18.74</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.65</v>
+        <v>3.56</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.33</v>
+        <v>2.43</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.15</v>
+        <v>0.92</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.77</v>
+        <v>1.08</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>45.28</v>
+        <v>4.53</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41542.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.85</v>
+        <v>3.28</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>46.78</v>
+        <v>4.68</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>172.48</v>
+        <v>17.25</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>32.93</v>
+        <v>3.29</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.19</v>
+        <v>2.22</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>42.47</v>
+        <v>4.25</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_110.xlsx
+++ b/DATA_goal/Junction_Flooding_110.xlsx
@@ -655,103 +655,103 @@
         <v>44791.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44791.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44791.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.67</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.5</v>
+        <v>24.98</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.68</v>
+        <v>106.84</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.2</v>
+        <v>21.98</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44791.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.31</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_110.xlsx
+++ b/DATA_goal/Junction_Flooding_110.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44791.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.13</v>
+        <v>2.133</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.93</v>
+        <v>1.925</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.45</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.82</v>
+        <v>3.825</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.92</v>
+        <v>3.925</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.27</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6.32</v>
+        <v>6.316</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.755</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.993</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.94</v>
+        <v>1.945</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.496</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.308</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.05</v>
+        <v>2.051</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.108</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.539</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.22</v>
+        <v>15.223</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.02</v>
+        <v>4.017</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.57</v>
+        <v>2.574</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.94</v>
+        <v>1.939</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.49</v>
+        <v>4.493</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.12</v>
+        <v>2.116</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.34</v>
+        <v>5.339</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.057</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44791.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.776999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.5</v>
+        <v>7.505</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.67</v>
+        <v>20.671</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.61</v>
+        <v>17.611</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.38</v>
+        <v>7.382</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.98</v>
+        <v>24.983</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.278</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.16</v>
+        <v>5.156</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.032999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.74</v>
+        <v>8.741</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.37</v>
+        <v>2.365</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.37</v>
+        <v>7.374</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.63</v>
+        <v>10.628</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.17</v>
+        <v>6.169</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.84</v>
+        <v>106.841</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.58</v>
+        <v>20.575</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.741</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.83</v>
+        <v>13.833</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.7</v>
+        <v>7.702</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>13.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.71</v>
+        <v>5.708</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.06</v>
+        <v>6.055</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.084</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.93</v>
+        <v>8.929</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.98</v>
+        <v>21.977</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>4.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.465</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44791.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.06</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.47</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_110.xlsx
+++ b/DATA_goal/Junction_Flooding_110.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,22 +970,22 @@
         <v>3.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.089</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.19</v>
+        <v>8.189</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.16</v>
+        <v>7.164</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.88</v>
+        <v>2.884</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.18</v>
+        <v>14.176</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>4.4</v>
@@ -994,76 +994,180 @@
         <v>2.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.29</v>
+        <v>3.291</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.43</v>
+        <v>3.432</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.47</v>
+        <v>3.471</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.947</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.89</v>
+        <v>2.891</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.315</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.46</v>
+        <v>2.459</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.312</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>38.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.375</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.62</v>
+        <v>2.622</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.21</v>
+        <v>3.206</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.4</v>
+        <v>7.395</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.13</v>
+        <v>2.132</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.66</v>
+        <v>2.659</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.35</v>
+        <v>2.353</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.61</v>
+        <v>3.614</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.88</v>
+        <v>12.877</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.733</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.312</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44791.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.06</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>158.47</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_110.xlsx
+++ b/DATA_goal/Junction_Flooding_110.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,22 +970,22 @@
         <v>3.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.089</v>
+        <v>3.09</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.307</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.189</v>
+        <v>8.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.164</v>
+        <v>7.16</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.884</v>
+        <v>2.88</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.176</v>
+        <v>14.18</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>4.4</v>
@@ -994,180 +994,76 @@
         <v>2.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.291</v>
+        <v>3.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.432</v>
+        <v>3.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.471</v>
+        <v>3.47</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.947</v>
+        <v>0.95</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.891</v>
+        <v>2.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.315</v>
+        <v>4.32</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.459</v>
+        <v>2.46</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>38.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.375</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.622</v>
+        <v>2.62</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.206</v>
+        <v>3.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.395</v>
+        <v>7.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.132</v>
+        <v>2.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.659</v>
+        <v>2.66</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.353</v>
+        <v>2.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.614</v>
+        <v>3.61</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.877</v>
+        <v>12.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.733</v>
+        <v>1.73</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.312</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44791.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.26</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.06</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>158.47</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.45</v>
+        <v>3.31</v>
       </c>
     </row>
   </sheetData>
